--- a/natmiOut/OldD0/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.96337988103985</v>
+        <v>0.9938993333333332</v>
       </c>
       <c r="H2">
-        <v>0.96337988103985</v>
+        <v>2.981698</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.75648255270345</v>
+        <v>4.807635</v>
       </c>
       <c r="N2">
-        <v>4.75648255270345</v>
+        <v>14.422905</v>
       </c>
       <c r="O2">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="P2">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="Q2">
-        <v>4.582299595791572</v>
+        <v>4.77830522141</v>
       </c>
       <c r="R2">
-        <v>4.582299595791572</v>
+        <v>43.00474699269</v>
       </c>
       <c r="S2">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
       <c r="T2">
-        <v>0.1639334255249429</v>
+        <v>0.1639819574772189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.96337988103985</v>
+        <v>0.9938993333333332</v>
       </c>
       <c r="H3">
-        <v>0.96337988103985</v>
+        <v>2.981698</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.636920038489</v>
+        <v>18.86426066666667</v>
       </c>
       <c r="N3">
-        <v>18.636920038489</v>
+        <v>56.592782</v>
       </c>
       <c r="O3">
-        <v>0.6423263639235793</v>
+        <v>0.643434534959602</v>
       </c>
       <c r="P3">
-        <v>0.6423263639235793</v>
+        <v>0.6434345349596021</v>
       </c>
       <c r="Q3">
-        <v>17.95443380962873</v>
+        <v>18.74917610042622</v>
       </c>
       <c r="R3">
-        <v>17.95443380962873</v>
+        <v>168.742584903836</v>
       </c>
       <c r="S3">
-        <v>0.6423263639235793</v>
+        <v>0.643434534959602</v>
       </c>
       <c r="T3">
-        <v>0.6423263639235793</v>
+        <v>0.6434345349596021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.96337988103985</v>
+        <v>0.9938993333333332</v>
       </c>
       <c r="H4">
-        <v>0.96337988103985</v>
+        <v>2.981698</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.62131809479565</v>
+        <v>5.646177333333333</v>
       </c>
       <c r="N4">
-        <v>5.62131809479565</v>
+        <v>16.938532</v>
       </c>
       <c r="O4">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="P4">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="Q4">
-        <v>5.41546475745139</v>
+        <v>5.611731887481777</v>
       </c>
       <c r="R4">
-        <v>5.41546475745139</v>
+        <v>50.50558698733599</v>
       </c>
       <c r="S4">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
       <c r="T4">
-        <v>0.1937402105514777</v>
+        <v>0.192583507563179</v>
       </c>
     </row>
   </sheetData>
